--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Prior Medication Statement Profile (R5)</t>
+    <t>Prior MedicationStatement Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,26 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Represents a statement about the patient's medication use *before* the index event.</t>
+    <t xml:space="preserve">Profile for documenting a statement about the patient’s medication use **before** the index stroke encounter.
+**Primary use-cases**
+- Medication reconciliation on admission (home medications).
+- Capturing pre-event antithrombotic/anticoagulant exposure (key for hemorrhage risk, eligibility decisions, and etiology workup).
+- Registry variables and analytics (e.g., “on anticoagulation at presentation”, “adherent vs non-adherent”).
+- Clinical decision support and discharge planning (continuation, switching, contraindication checks).
+**How to interpret MedicationStatement here**
+- This resource asserts *medication usage status/history*, not a prescription/order.
+  - Use MedicationRequest for discharge prescriptions or new orders.
+  - Use MedicationStatement for what the patient was taking (or was supposed to be taking) prior to admission.
+**Key elements and how to use them**
+- `medication` (required; bound to MedicationVS or an IG-specific meds ValueSet): identifies the agent/class.
+  - Prefer specific coded substances/products when available.
+- `subject` (required): patient who used the medication.
+- `encounter` (required): anchors the statement to the index stroke encounter where it was collected/recorded.
+- `status` (required): the lifecycle status of the statement record (e.g., recorded/entered-in-error).
+- `adherence` (optional): captures whether the patient is/was taking the medication as intended.
+  - If present, `adherence.code` is required and bound to the R5 adherence ValueSet.
+- `reason` (optional, repeating): why the medication was taken (indication), represented as CodeableReference targets.
+</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
